--- a/study01/report/motivation/scr-effective-participants/perceived-choice/by-Type/NonParametricAnalysis.xlsx
+++ b/study01/report/motivation/scr-effective-participants/perceived-choice/by-Type/NonParametricAnalysis.xlsx
@@ -19499,13 +19499,13 @@
         <v>61.0</v>
       </c>
       <c r="G7" t="n" s="507">
-        <v>-0.5281354105272398</v>
+        <v>-0.5281354105272397</v>
       </c>
       <c r="H7" t="n" s="508">
         <v>0.30705935380184946</v>
       </c>
       <c r="I7" t="n" s="509">
-        <v>0.10780518924058807</v>
+        <v>0.10780518924058805</v>
       </c>
       <c r="J7" t="s" s="510">
         <v>41</v>
@@ -19531,13 +19531,13 @@
         <v>61.0</v>
       </c>
       <c r="G8" t="n" s="507">
-        <v>-0.5281354105272398</v>
+        <v>-0.5281354105272397</v>
       </c>
       <c r="H8" t="n" s="508">
         <v>0.30705935380184946</v>
       </c>
       <c r="I8" t="n" s="509">
-        <v>0.10780518924058807</v>
+        <v>0.10780518924058805</v>
       </c>
       <c r="J8" t="s" s="510">
         <v>41</v>
@@ -19600,13 +19600,13 @@
         <v>61.0</v>
       </c>
       <c r="G11" t="n" s="535">
-        <v>-0.5281354105272398</v>
+        <v>-0.5281354105272397</v>
       </c>
       <c r="H11" t="n" s="536">
         <v>0.7030316287113972</v>
       </c>
       <c r="I11" t="n" s="537">
-        <v>0.10780518924058807</v>
+        <v>0.10780518924058805</v>
       </c>
       <c r="J11" t="s" s="538">
         <v>41</v>
@@ -19632,13 +19632,13 @@
         <v>61.0</v>
       </c>
       <c r="G12" t="n" s="535">
-        <v>-0.5281354105272398</v>
+        <v>-0.5281354105272397</v>
       </c>
       <c r="H12" t="n" s="536">
         <v>0.7030316287113972</v>
       </c>
       <c r="I12" t="n" s="537">
-        <v>0.10780518924058807</v>
+        <v>0.10780518924058805</v>
       </c>
       <c r="J12" t="s" s="538">
         <v>41</v>
@@ -19701,13 +19701,13 @@
         <v>61.0</v>
       </c>
       <c r="G15" t="n" s="563">
-        <v>-0.5281354105272398</v>
+        <v>-0.5281354105272397</v>
       </c>
       <c r="H15" t="n" s="564">
         <v>0.6140758779068107</v>
       </c>
       <c r="I15" t="n" s="565">
-        <v>0.10780518924058807</v>
+        <v>0.10780518924058805</v>
       </c>
       <c r="J15" t="s" s="566">
         <v>41</v>
@@ -19733,13 +19733,13 @@
         <v>61.0</v>
       </c>
       <c r="G16" t="n" s="563">
-        <v>-0.5281354105272398</v>
+        <v>-0.5281354105272397</v>
       </c>
       <c r="H16" t="n" s="564">
         <v>0.6140758779068107</v>
       </c>
       <c r="I16" t="n" s="565">
-        <v>0.10780518924058807</v>
+        <v>0.10780518924058805</v>
       </c>
       <c r="J16" t="s" s="566">
         <v>41</v>
@@ -22288,13 +22288,13 @@
         <v>51.0</v>
       </c>
       <c r="G7" t="n" s="674">
-        <v>-1.1169051662380964</v>
+        <v>-1.1169051662380967</v>
       </c>
       <c r="H7" t="n" s="675">
         <v>0.13812322307745648</v>
       </c>
       <c r="I7" t="n" s="676">
-        <v>0.22798731236347983</v>
+        <v>0.22798731236347985</v>
       </c>
       <c r="J7" t="s" s="677">
         <v>41</v>
@@ -22320,13 +22320,13 @@
         <v>51.0</v>
       </c>
       <c r="G8" t="n" s="674">
-        <v>-1.1169051662380964</v>
+        <v>-1.1169051662380967</v>
       </c>
       <c r="H8" t="n" s="675">
         <v>0.13812322307745648</v>
       </c>
       <c r="I8" t="n" s="676">
-        <v>0.22798731236347983</v>
+        <v>0.22798731236347985</v>
       </c>
       <c r="J8" t="s" s="677">
         <v>41</v>
@@ -22389,13 +22389,13 @@
         <v>51.0</v>
       </c>
       <c r="G11" t="n" s="702">
-        <v>-1.1169051662380964</v>
+        <v>-1.1169051662380967</v>
       </c>
       <c r="H11" t="n" s="703">
         <v>0.8683792426893786</v>
       </c>
       <c r="I11" t="n" s="704">
-        <v>0.22798731236347983</v>
+        <v>0.22798731236347985</v>
       </c>
       <c r="J11" t="s" s="705">
         <v>41</v>
@@ -22421,13 +22421,13 @@
         <v>51.0</v>
       </c>
       <c r="G12" t="n" s="702">
-        <v>-1.1169051662380964</v>
+        <v>-1.1169051662380967</v>
       </c>
       <c r="H12" t="n" s="703">
         <v>0.8683792426893786</v>
       </c>
       <c r="I12" t="n" s="704">
-        <v>0.22798731236347983</v>
+        <v>0.22798731236347985</v>
       </c>
       <c r="J12" t="s" s="705">
         <v>41</v>
@@ -22490,13 +22490,13 @@
         <v>51.0</v>
       </c>
       <c r="G15" t="n" s="730">
-        <v>-1.1169051662380964</v>
+        <v>-1.1169051662380967</v>
       </c>
       <c r="H15" t="n" s="731">
         <v>0.2762158535142786</v>
       </c>
       <c r="I15" t="n" s="732">
-        <v>0.22798731236347983</v>
+        <v>0.22798731236347985</v>
       </c>
       <c r="J15" t="s" s="733">
         <v>41</v>
@@ -22522,13 +22522,13 @@
         <v>51.0</v>
       </c>
       <c r="G16" t="n" s="730">
-        <v>-1.1169051662380964</v>
+        <v>-1.1169051662380967</v>
       </c>
       <c r="H16" t="n" s="731">
         <v>0.2762158535142786</v>
       </c>
       <c r="I16" t="n" s="732">
-        <v>0.22798731236347983</v>
+        <v>0.22798731236347985</v>
       </c>
       <c r="J16" t="s" s="733">
         <v>41</v>
